--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A51FF42-5B27-45E3-BC87-BCCD3533CCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94BD679-F372-4346-8CB4-D4EF19E39351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
@@ -1362,7 +1362,7 @@
   <dimension ref="B2:L38"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>186</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -1383,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="2">
-        <v>10708</v>
+        <v>10515</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>109</v>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="K4" s="2">
         <f>K3*K2</f>
-        <v>1991688</v>
+        <v>2513085</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -1409,7 +1409,8 @@
         <v>4</v>
       </c>
       <c r="K5" s="2">
-        <v>89092</v>
+        <f>73387+13393</f>
+        <v>86780</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>109</v>
@@ -1423,7 +1424,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="2">
-        <v>54889</v>
+        <v>58314</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>109</v>
@@ -1435,7 +1436,7 @@
       </c>
       <c r="K7" s="2">
         <f>K4-K5+K6</f>
-        <v>1957485</v>
+        <v>2484619</v>
       </c>
       <c r="L7" s="3"/>
     </row>
@@ -1592,7 +1593,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AJ32" sqref="AJ32"/>
+      <selection pane="bottomRight" activeCell="AI28" sqref="AI28:AJ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8170,7 +8171,7 @@
       </c>
       <c r="BZ48" s="2">
         <f>NPV(BZ45,BP32:EG32)+Main!K5-Main!K6</f>
-        <v>1461008.3940996223</v>
+        <v>1455271.3940996223</v>
       </c>
     </row>
     <row r="49" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8245,7 +8246,7 @@
       </c>
       <c r="BZ49" s="1">
         <f>+BZ48/Main!K3</f>
-        <v>136.44082873548956</v>
+        <v>138.39956196858034</v>
       </c>
     </row>
     <row r="50" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
